--- a/InputData/elec/FPCbS/Flexibility Points Consumed by Source.xlsx
+++ b/InputData/elec/FPCbS/Flexibility Points Consumed by Source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\FPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\FPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8B29D-D34C-4CE4-ACEB-E96F7106F853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="11610"/>
+    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>FPCbS Flexibility Points Consumed by Source</t>
   </si>
@@ -161,9 +162,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -219,12 +217,18 @@
   </si>
   <si>
     <t>FP (flexibility points/MW)</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,7 +555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -623,17 +627,17 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -763,15 +767,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -782,12 +784,12 @@
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -795,7 +797,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -803,7 +805,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -811,7 +813,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -819,15 +821,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -835,15 +837,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -851,7 +853,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -859,7 +861,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -867,7 +869,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -875,7 +877,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -883,23 +885,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -907,9 +909,17 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
         <v>0</v>
       </c>
     </row>
